--- a/biology/Botanique/Indice_d'intégrité_du_paysage_forestier/Indice_d'intégrité_du_paysage_forestier.xlsx
+++ b/biology/Botanique/Indice_d'intégrité_du_paysage_forestier/Indice_d'intégrité_du_paysage_forestier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Indice_d%27int%C3%A9grit%C3%A9_du_paysage_forestier</t>
+          <t>Indice_d'intégrité_du_paysage_forestier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'indice d'intégrité du paysage forestier (IIPF ; en anglais : Forest Landscape Integrity Index, FLII) est un indice mondial annuel de l'état des forêts mesuré par le degré de modification anthropique[1],[2],[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'indice d'intégrité du paysage forestier (IIPF ; en anglais : Forest Landscape Integrity Index, FLII) est un indice mondial annuel de l'état des forêts mesuré par le degré de modification anthropique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Indice_d%27int%C3%A9grit%C3%A9_du_paysage_forestier</t>
+          <t>Indice_d'intégrité_du_paysage_forestier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Interprétation, limites</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet indice permet d'évaluer l'état de conservation et de naturalité des surfaces forestières actuellement existantes. Il prend en compte les activités humaines contribuant à la dégradation des forêts, notamment l'exploitation forestière, les incendies, l'exploitation de la faune et les effets de lisière. Les forêts à forte intégrité sont donc ici les forêts où l'homme intervient peu.
 Mais les surfaces historiquement occupées par de la forêt et aujourd'hui déforestées, remplacées par des zones agricoles ou urbanisées, ne sont pas prises en compte dans cet indice. Cet indice passe donc entièrement sous silence la déforestation, ancienne ou récente. Il en résulte que certains pays ayant un fort taux de déforestation depuis le XXe siècle ont des scores assez élevés, car les surfaces de forêts subsistantes dans ces pays peuvent avoir en partie un fort degré de naturalité, alors que des pays qui protègent et reboisent depuis plus d'un siècle ont un indice bas, car les forêts récentes n'ont pas une intégrité élevée par définition, bien que leur potentiel puisse parfois être élevé dans l'avenir. De plus l'indice considère des espaces agricoles artificiels où sont cultivés des arbres (vergers, palmeraies, plantations d'hévéa, de cacao, etc) comme des forêts avec un très bas score d'intégrité, alors que les espaces agricoles non arborées qui sont issus de la déforestation (champs, prairies) ne sont pas du tout pris en compte dans le calcul de l'indice par pays.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Indice_d%27int%C3%A9grit%C3%A9_du_paysage_forestier</t>
+          <t>Indice_d'intégrité_du_paysage_forestier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Classements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'indice classe 172 pays en 2019[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'indice classe 172 pays en 2019 :
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indice_d%27int%C3%A9grit%C3%A9_du_paysage_forestier</t>
+          <t>Indice_d'intégrité_du_paysage_forestier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indice a été rédigé par une équipe mondiale d'experts en conservation des forêts, dont:
 </t>
